--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4888" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +835,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +928,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1008,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1055,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1101,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1181,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1228,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1274,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1383,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1430,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1476,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1544,10 +1556,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1591,28 +1603,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1637,28 +1649,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1775,10 +1787,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1822,28 +1834,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1868,28 +1880,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1948,10 +1960,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1995,28 +2007,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2041,28 +2053,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2121,10 +2133,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2168,28 +2180,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2214,28 +2226,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2294,10 +2306,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2341,28 +2353,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2387,28 +2399,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2467,10 +2479,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2514,28 +2526,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2560,28 +2572,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2698,10 +2710,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2745,28 +2757,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2791,28 +2803,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2871,10 +2883,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2918,28 +2930,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2964,28 +2976,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3044,10 +3056,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3091,28 +3103,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3137,28 +3149,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3217,10 +3229,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="2" t="s">
+      <c r="J107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3264,28 +3276,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="2">
+      <c r="C109" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3310,28 +3322,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="2">
+      <c r="I111" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3390,10 +3402,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3437,28 +3449,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3483,28 +3495,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3592,10 +3604,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3639,28 +3651,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3685,28 +3697,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3794,10 +3806,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3841,28 +3853,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3887,28 +3899,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3967,10 +3979,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4014,28 +4026,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4060,28 +4072,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4198,10 +4210,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4245,28 +4257,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4291,28 +4303,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4371,10 +4383,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4418,28 +4430,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4464,28 +4476,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4544,10 +4556,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4591,28 +4603,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4637,28 +4649,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4746,10 +4758,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4793,28 +4805,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4839,28 +4851,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4919,10 +4931,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4966,28 +4978,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5012,28 +5024,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5092,10 +5104,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5139,28 +5151,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5185,28 +5197,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5294,10 +5306,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5341,28 +5353,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5387,28 +5399,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5525,10 +5537,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5572,28 +5584,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5618,28 +5630,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5698,10 +5710,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5745,28 +5757,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5791,28 +5803,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5871,10 +5883,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5918,28 +5930,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5964,28 +5976,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6044,10 +6056,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6091,28 +6103,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6137,28 +6149,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6275,10 +6287,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6322,28 +6334,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6368,28 +6380,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6448,10 +6460,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6495,28 +6507,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6541,28 +6553,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6621,10 +6633,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="2" t="s">
+      <c r="J225" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6668,28 +6680,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="2">
+      <c r="A227" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="2">
+      <c r="C227" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6714,28 +6726,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="2">
+      <c r="C229" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="2">
+      <c r="D229" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="2">
+      <c r="I229" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6823,10 +6835,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6870,28 +6882,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6916,28 +6928,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6996,10 +7008,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7043,28 +7055,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7089,28 +7101,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7169,10 +7181,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7216,28 +7228,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7262,28 +7274,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7342,10 +7354,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7389,28 +7401,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7435,28 +7447,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7515,10 +7527,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7562,28 +7574,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7608,28 +7620,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7688,10 +7700,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="2" t="s">
+      <c r="J262" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7735,28 +7747,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="2">
+      <c r="A264" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="2">
+      <c r="C264" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7781,28 +7793,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="2">
+      <c r="C266" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="2">
+      <c r="D266" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="2">
+      <c r="I266" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7861,10 +7873,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7908,28 +7920,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7954,28 +7966,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8121,10 +8133,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8168,28 +8180,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8214,28 +8226,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8294,10 +8306,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="2" t="s">
+      <c r="J283" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8341,28 +8353,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="2">
+      <c r="A285" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="2">
+      <c r="C285" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8387,28 +8399,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="2">
+      <c r="C287" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="2">
+      <c r="D287" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="2">
+      <c r="I287" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8496,10 +8508,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8543,28 +8555,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8589,28 +8601,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8669,10 +8681,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8716,28 +8728,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8762,28 +8774,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8871,10 +8883,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8918,28 +8930,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8964,28 +8976,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9044,10 +9056,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9091,28 +9103,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9137,28 +9149,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9217,10 +9229,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="2" t="s">
+      <c r="J315" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9264,28 +9276,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="2">
+      <c r="A317" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="2">
+      <c r="C317" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9310,28 +9322,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="2">
+      <c r="C319" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="2">
+      <c r="D319" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="2">
+      <c r="I319" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9390,10 +9402,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="2" t="s">
+      <c r="J321" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9437,28 +9449,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="2">
+      <c r="A323" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="2">
+      <c r="C323" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9483,28 +9495,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="2">
+      <c r="C325" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="2">
+      <c r="D325" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="2">
+      <c r="I325" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9563,10 +9575,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="2" t="s">
+      <c r="J327" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9610,28 +9622,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="2">
+      <c r="A329" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="2">
+      <c r="C329" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9656,28 +9668,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="2">
+      <c r="C331" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="2">
+      <c r="D331" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="2">
+      <c r="I331" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9736,10 +9748,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="2" t="s">
+      <c r="J333" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9783,28 +9795,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="2">
+      <c r="A335" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="2">
+      <c r="C335" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9829,28 +9841,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="2">
+      <c r="C337" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="2">
+      <c r="D337" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="2">
+      <c r="I337" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9909,10 +9921,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="2" t="s">
+      <c r="J339" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9956,28 +9968,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="2">
+      <c r="A341" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="2">
+      <c r="C341" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10002,28 +10014,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="2">
+      <c r="C343" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="2">
+      <c r="D343" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="2">
+      <c r="I343" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10082,10 +10094,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="2" t="s">
+      <c r="J345" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10129,28 +10141,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="2">
+      <c r="A347" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="2">
+      <c r="C347" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10175,28 +10187,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="2">
+      <c r="C349" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="2">
+      <c r="D349" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="2">
+      <c r="I349" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10255,10 +10267,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="2" t="s">
+      <c r="J351" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10302,28 +10314,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="2">
+      <c r="A353" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="2">
+      <c r="C353" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10348,28 +10360,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="2">
+      <c r="C355" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="2">
+      <c r="D355" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="2">
+      <c r="I355" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10428,10 +10440,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="2" t="s">
+      <c r="J357" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10475,28 +10487,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="2">
+      <c r="A359" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="2">
+      <c r="B359" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="2">
+      <c r="C359" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="2">
+      <c r="E359" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="2">
+      <c r="F359" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="2">
+      <c r="G359" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="2">
+      <c r="H359" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10521,28 +10533,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="2">
+      <c r="C361" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="2">
+      <c r="D361" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="2">
+      <c r="I361" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10601,10 +10613,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="2" t="s">
+      <c r="J363" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10648,28 +10660,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="2">
+      <c r="A365" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="2">
+      <c r="C365" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10694,28 +10706,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="2">
+      <c r="C367" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="2">
+      <c r="D367" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="2">
+      <c r="I367" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10774,10 +10786,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="2" t="s">
+      <c r="J369" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10821,28 +10833,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="2">
+      <c r="A371" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="2">
+      <c r="C371" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10867,28 +10879,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="2">
+      <c r="C373" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="2">
+      <c r="D373" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="2">
+      <c r="I373" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10976,10 +10988,10 @@
       <c r="I376">
         <f>((C376-C375)^2+(D376- D375)^2)^.5</f>
       </c>
-      <c r="J376" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K376" s="2" t="s">
+      <c r="J376" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K376" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L376" t="n">
@@ -11023,28 +11035,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="s" s="2">
+      <c r="A378" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B378" t="s" s="2">
+      <c r="B378" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C378" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D378" t="s" s="2">
+      <c r="C378" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E378" t="s" s="2">
+      <c r="E378" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F378" t="s" s="2">
+      <c r="F378" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G378" t="s" s="2">
+      <c r="G378" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H378" t="s" s="2">
+      <c r="H378" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11069,28 +11081,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="B380" t="s" s="2">
+      <c r="B380" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C380" t="s" s="2">
+      <c r="C380" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D380" t="s" s="2">
+      <c r="D380" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E380" t="s" s="2">
+      <c r="E380" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F380" t="s" s="2">
+      <c r="F380" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G380" t="s" s="2">
+      <c r="G380" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H380" t="s" s="2">
+      <c r="H380" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I380" t="s" s="2">
+      <c r="I380" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11149,10 +11161,10 @@
       <c r="I382">
         <f>((C382-C381)^2+(D382- D381)^2)^.5</f>
       </c>
-      <c r="J382" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K382" s="2" t="s">
+      <c r="J382" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K382" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L382" t="n">
@@ -11196,28 +11208,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="s" s="2">
+      <c r="A384" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B384" t="s" s="2">
+      <c r="B384" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C384" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D384" t="s" s="2">
+      <c r="C384" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E384" t="s" s="2">
+      <c r="E384" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F384" t="s" s="2">
+      <c r="F384" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G384" t="s" s="2">
+      <c r="G384" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H384" t="s" s="2">
+      <c r="H384" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11242,28 +11254,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="B386" t="s" s="2">
+      <c r="B386" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C386" t="s" s="2">
+      <c r="C386" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D386" t="s" s="2">
+      <c r="D386" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E386" t="s" s="2">
+      <c r="E386" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F386" t="s" s="2">
+      <c r="F386" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G386" t="s" s="2">
+      <c r="G386" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H386" t="s" s="2">
+      <c r="H386" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I386" t="s" s="2">
+      <c r="I386" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11322,10 +11334,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="2" t="s">
+      <c r="J388" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11369,28 +11381,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="2">
+      <c r="A390" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="2">
+      <c r="C390" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11415,28 +11427,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="2">
+      <c r="B392" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="2">
+      <c r="C392" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="2">
+      <c r="D392" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="2">
+      <c r="E392" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="2">
+      <c r="F392" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="2">
+      <c r="G392" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="2">
+      <c r="H392" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="2">
+      <c r="I392" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11495,10 +11507,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="2" t="s">
+      <c r="J394" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11542,28 +11554,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="2">
+      <c r="A396" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="2">
+      <c r="C396" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11588,28 +11600,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="2">
+      <c r="B398" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="2">
+      <c r="C398" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="2">
+      <c r="D398" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="2">
+      <c r="E398" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="2">
+      <c r="F398" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="2">
+      <c r="G398" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="2">
+      <c r="H398" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="2">
+      <c r="I398" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11668,10 +11680,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="2" t="s">
+      <c r="J400" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11715,28 +11727,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="2">
+      <c r="A402" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="2">
+      <c r="C402" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11761,28 +11773,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="2">
+      <c r="B404" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="2">
+      <c r="C404" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="2">
+      <c r="D404" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="2">
+      <c r="E404" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="2">
+      <c r="F404" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="2">
+      <c r="G404" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="2">
+      <c r="H404" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="2">
+      <c r="I404" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11841,10 +11853,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="2" t="s">
+      <c r="J406" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11888,28 +11900,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="2">
+      <c r="A408" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="2">
+      <c r="B408" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="2">
+      <c r="C408" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="2">
+      <c r="E408" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="2">
+      <c r="F408" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="2">
+      <c r="G408" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="2">
+      <c r="H408" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11934,28 +11946,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="2">
+      <c r="B410" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="2">
+      <c r="C410" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="2">
+      <c r="D410" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="2">
+      <c r="E410" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="2">
+      <c r="F410" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="2">
+      <c r="G410" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="2">
+      <c r="H410" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="2">
+      <c r="I410" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12072,10 +12084,10 @@
       <c r="I414">
         <f>((C414-C413)^2+(D414- D413)^2)^.5</f>
       </c>
-      <c r="J414" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K414" s="2" t="s">
+      <c r="J414" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K414" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L414" t="n">
@@ -12119,28 +12131,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="s" s="2">
+      <c r="A416" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B416" t="s" s="2">
+      <c r="B416" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C416" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D416" t="s" s="2">
+      <c r="C416" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D416" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E416" t="s" s="2">
+      <c r="E416" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F416" t="s" s="2">
+      <c r="F416" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G416" t="s" s="2">
+      <c r="G416" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H416" t="s" s="2">
+      <c r="H416" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12165,28 +12177,28 @@
       </c>
     </row>
     <row r="418">
-      <c r="B418" t="s" s="2">
+      <c r="B418" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C418" t="s" s="2">
+      <c r="C418" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D418" t="s" s="2">
+      <c r="D418" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E418" t="s" s="2">
+      <c r="E418" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F418" t="s" s="2">
+      <c r="F418" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G418" t="s" s="2">
+      <c r="G418" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H418" t="s" s="2">
+      <c r="H418" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I418" t="s" s="2">
+      <c r="I418" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12274,10 +12286,10 @@
       <c r="I421">
         <f>((C421-C420)^2+(D421- D420)^2)^.5</f>
       </c>
-      <c r="J421" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K421" s="2" t="s">
+      <c r="J421" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K421" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L421" t="n">
@@ -12321,28 +12333,28 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="s" s="2">
+      <c r="A423" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B423" t="s" s="2">
+      <c r="B423" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C423" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D423" t="s" s="2">
+      <c r="C423" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D423" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E423" t="s" s="2">
+      <c r="E423" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F423" t="s" s="2">
+      <c r="F423" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G423" t="s" s="2">
+      <c r="G423" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H423" t="s" s="2">
+      <c r="H423" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12367,28 +12379,28 @@
       </c>
     </row>
     <row r="425">
-      <c r="B425" t="s" s="2">
+      <c r="B425" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C425" t="s" s="2">
+      <c r="C425" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D425" t="s" s="2">
+      <c r="D425" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E425" t="s" s="2">
+      <c r="E425" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F425" t="s" s="2">
+      <c r="F425" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G425" t="s" s="2">
+      <c r="G425" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H425" t="s" s="2">
+      <c r="H425" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I425" t="s" s="2">
+      <c r="I425" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12476,10 +12488,10 @@
       <c r="I428">
         <f>((C428-C427)^2+(D428- D427)^2)^.5</f>
       </c>
-      <c r="J428" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K428" s="2" t="s">
+      <c r="J428" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K428" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L428" t="n">
@@ -12523,28 +12535,28 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="s" s="2">
+      <c r="A430" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B430" t="s" s="2">
+      <c r="B430" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C430" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D430" t="s" s="2">
+      <c r="C430" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D430" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E430" t="s" s="2">
+      <c r="E430" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F430" t="s" s="2">
+      <c r="F430" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G430" t="s" s="2">
+      <c r="G430" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H430" t="s" s="2">
+      <c r="H430" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12569,28 +12581,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="B432" t="s" s="2">
+      <c r="B432" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C432" t="s" s="2">
+      <c r="C432" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D432" t="s" s="2">
+      <c r="D432" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E432" t="s" s="2">
+      <c r="E432" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F432" t="s" s="2">
+      <c r="F432" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G432" t="s" s="2">
+      <c r="G432" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H432" t="s" s="2">
+      <c r="H432" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I432" t="s" s="2">
+      <c r="I432" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12707,10 +12719,10 @@
       <c r="I436">
         <f>((C436-C435)^2+(D436- D435)^2)^.5</f>
       </c>
-      <c r="J436" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K436" s="2" t="s">
+      <c r="J436" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K436" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L436" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4888" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14664" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -373,10 +421,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -420,28 +468,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="4">
+      <c r="A10" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="4">
+      <c r="C10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="4">
+      <c r="E10" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="4">
+      <c r="F10" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="4">
+      <c r="G10" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="4">
+      <c r="H10" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -466,28 +514,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="D12" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="4">
+      <c r="I12" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -604,10 +652,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="J16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -651,28 +699,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="4">
+      <c r="C18" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -697,28 +745,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="4">
+      <c r="I20" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -835,10 +883,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="J24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -882,28 +930,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="4">
+      <c r="A26" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="4">
+      <c r="C26" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -928,28 +976,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="4">
+      <c r="C28" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="4">
+      <c r="D28" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="4">
+      <c r="G28" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="4">
+      <c r="H28" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="4">
+      <c r="I28" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1008,10 +1056,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="J30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1055,28 +1103,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="4">
+      <c r="A32" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="4">
+      <c r="C32" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1101,28 +1149,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="C34" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="4">
+      <c r="D34" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="4">
+      <c r="I34" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1181,10 +1229,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="J36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1228,28 +1276,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="4">
+      <c r="A38" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="4">
+      <c r="B38" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="4">
+      <c r="C38" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="4">
+      <c r="G38" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="4">
+      <c r="H38" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1274,28 +1322,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="4">
+      <c r="C40" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="4">
+      <c r="D40" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="4">
+      <c r="I40" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1383,10 +1431,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="4" t="s">
+      <c r="J43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1430,28 +1478,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="4">
+      <c r="A45" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="4">
+      <c r="B45" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="4">
+      <c r="C45" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="4">
+      <c r="E45" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="4">
+      <c r="F45" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="4">
+      <c r="G45" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="4">
+      <c r="H45" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1476,28 +1524,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="4">
+      <c r="C47" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="4">
+      <c r="D47" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="4">
+      <c r="E47" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="4">
+      <c r="F47" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="4">
+      <c r="G47" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="4">
+      <c r="H47" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="4">
+      <c r="I47" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1556,10 +1604,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="4" t="s">
+      <c r="J49" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1603,28 +1651,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="4">
+      <c r="A51" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="4">
+      <c r="B51" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="4">
+      <c r="C51" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="4">
+      <c r="E51" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="4">
+      <c r="F51" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="4">
+      <c r="G51" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="4">
+      <c r="H51" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1649,28 +1697,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="4">
+      <c r="B53" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="4">
+      <c r="C53" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="4">
+      <c r="D53" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="4">
+      <c r="E53" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="4">
+      <c r="F53" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="4">
+      <c r="G53" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="4">
+      <c r="H53" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="4">
+      <c r="I53" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1787,10 +1835,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="4" t="s">
+      <c r="J57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1834,28 +1882,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="4">
+      <c r="A59" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="4">
+      <c r="B59" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="4">
+      <c r="C59" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="4">
+      <c r="E59" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="4">
+      <c r="F59" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="4">
+      <c r="G59" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="4">
+      <c r="H59" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1880,28 +1928,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="4">
+      <c r="I61" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1960,10 +2008,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="4" t="s">
+      <c r="J63" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2007,28 +2055,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="4">
+      <c r="A65" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="4">
+      <c r="B65" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="4">
+      <c r="C65" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="4">
+      <c r="E65" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="4">
+      <c r="F65" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="4">
+      <c r="G65" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="4">
+      <c r="H65" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2053,28 +2101,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="4">
+      <c r="B67" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="4">
+      <c r="C67" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="4">
+      <c r="D67" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="4">
+      <c r="E67" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="4">
+      <c r="F67" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="4">
+      <c r="G67" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="4">
+      <c r="H67" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="4">
+      <c r="I67" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2133,10 +2181,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="4" t="s">
+      <c r="J69" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2180,28 +2228,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="4">
+      <c r="A71" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="4">
+      <c r="C71" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="4">
+      <c r="G71" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="4">
+      <c r="H71" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2226,28 +2274,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="C73" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="4">
+      <c r="D73" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="4">
+      <c r="I73" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2306,10 +2354,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="4" t="s">
+      <c r="J75" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2353,28 +2401,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="4">
+      <c r="A77" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="4">
+      <c r="B77" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="4">
+      <c r="C77" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="4">
+      <c r="E77" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="4">
+      <c r="F77" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="4">
+      <c r="G77" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="4">
+      <c r="H77" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2399,28 +2447,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="4">
+      <c r="B79" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="4">
+      <c r="C79" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="4">
+      <c r="D79" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="4">
+      <c r="E79" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="4">
+      <c r="F79" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="4">
+      <c r="G79" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="4">
+      <c r="H79" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="4">
+      <c r="I79" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2479,10 +2527,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="4" t="s">
+      <c r="J81" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2526,28 +2574,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="4">
+      <c r="A83" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="4">
+      <c r="C83" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2572,28 +2620,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="4">
+      <c r="B85" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C85" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="4">
+      <c r="D85" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="4">
+      <c r="E85" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="4">
+      <c r="F85" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="4">
+      <c r="G85" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="4">
+      <c r="H85" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="4">
+      <c r="I85" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2710,10 +2758,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="4" t="s">
+      <c r="J89" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2757,28 +2805,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="4">
+      <c r="A91" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="4">
+      <c r="C91" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="4">
+      <c r="E91" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="4">
+      <c r="F91" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="4">
+      <c r="G91" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="4">
+      <c r="H91" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2803,28 +2851,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="4">
+      <c r="B93" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="4">
+      <c r="C93" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="4">
+      <c r="D93" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="4">
+      <c r="E93" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="4">
+      <c r="F93" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="4">
+      <c r="G93" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="4">
+      <c r="H93" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="4">
+      <c r="I93" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2883,10 +2931,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="4" t="s">
+      <c r="J95" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2930,28 +2978,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="4">
+      <c r="A97" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="4">
+      <c r="C97" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2976,28 +3024,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="4">
+      <c r="C99" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="4">
+      <c r="D99" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="4">
+      <c r="G99" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="4">
+      <c r="H99" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="4">
+      <c r="I99" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3056,10 +3104,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="4" t="s">
+      <c r="J101" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3103,28 +3151,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="4">
+      <c r="A103" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="4">
+      <c r="C103" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="4">
+      <c r="G103" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="4">
+      <c r="H103" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3149,28 +3197,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="4">
+      <c r="B105" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="4">
+      <c r="C105" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="4">
+      <c r="D105" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="4">
+      <c r="E105" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="4">
+      <c r="F105" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="4">
+      <c r="G105" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="4">
+      <c r="H105" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="4">
+      <c r="I105" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3229,10 +3277,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="4" t="s">
+      <c r="J107" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3276,28 +3324,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="4">
+      <c r="A109" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="4">
+      <c r="B109" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="4">
+      <c r="C109" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="4">
+      <c r="E109" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="4">
+      <c r="F109" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="4">
+      <c r="G109" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="4">
+      <c r="H109" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3322,28 +3370,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="4">
+      <c r="B111" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="4">
+      <c r="C111" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="4">
+      <c r="D111" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="4">
+      <c r="E111" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="4">
+      <c r="F111" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="4">
+      <c r="G111" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="4">
+      <c r="H111" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="4">
+      <c r="I111" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3402,10 +3450,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="4" t="s">
+      <c r="J113" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3449,28 +3497,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="4">
+      <c r="A115" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="4">
+      <c r="C115" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="4">
+      <c r="G115" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="4">
+      <c r="H115" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3495,28 +3543,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="4">
+      <c r="B117" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="4">
+      <c r="C117" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="4">
+      <c r="D117" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="4">
+      <c r="E117" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="4">
+      <c r="F117" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="4">
+      <c r="G117" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="4">
+      <c r="H117" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="4">
+      <c r="I117" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3604,10 +3652,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="4" t="s">
+      <c r="J120" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3651,28 +3699,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="4">
+      <c r="A122" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="4">
+      <c r="B122" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="4">
+      <c r="C122" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="4">
+      <c r="E122" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="4">
+      <c r="F122" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="4">
+      <c r="G122" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="4">
+      <c r="H122" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3697,28 +3745,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="4">
+      <c r="C124" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="4">
+      <c r="D124" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="4">
+      <c r="G124" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="4">
+      <c r="H124" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="4">
+      <c r="I124" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3806,10 +3854,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="4" t="s">
+      <c r="J127" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3853,28 +3901,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="4">
+      <c r="A129" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="4">
+      <c r="C129" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="4">
+      <c r="E129" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="4">
+      <c r="F129" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="4">
+      <c r="G129" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="4">
+      <c r="H129" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3899,28 +3947,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="4">
+      <c r="C131" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="4">
+      <c r="D131" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="4">
+      <c r="E131" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="4">
+      <c r="F131" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="4">
+      <c r="G131" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="4">
+      <c r="H131" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="4">
+      <c r="I131" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3979,10 +4027,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="4" t="s">
+      <c r="J133" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4026,28 +4074,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="4">
+      <c r="A135" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="4">
+      <c r="C135" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4072,28 +4120,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="4">
+      <c r="B137" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="4">
+      <c r="C137" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="4">
+      <c r="D137" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="4">
+      <c r="E137" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="4">
+      <c r="F137" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="4">
+      <c r="G137" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="4">
+      <c r="H137" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="4">
+      <c r="I137" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4210,10 +4258,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="4" t="s">
+      <c r="J141" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4257,28 +4305,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="4">
+      <c r="A143" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="4">
+      <c r="B143" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="4">
+      <c r="C143" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="4">
+      <c r="E143" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="4">
+      <c r="F143" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="4">
+      <c r="G143" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="4">
+      <c r="H143" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4303,28 +4351,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="4">
+      <c r="B145" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="4">
+      <c r="C145" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="4">
+      <c r="D145" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="4">
+      <c r="E145" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="4">
+      <c r="F145" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="4">
+      <c r="G145" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="4">
+      <c r="H145" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="4">
+      <c r="I145" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4383,10 +4431,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="4" t="s">
+      <c r="J147" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4430,28 +4478,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="4">
+      <c r="A149" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="4">
+      <c r="C149" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="4">
+      <c r="E149" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="4">
+      <c r="F149" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="4">
+      <c r="G149" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="4">
+      <c r="H149" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4476,28 +4524,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="4">
+      <c r="B151" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="4">
+      <c r="C151" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="4">
+      <c r="D151" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="4">
+      <c r="E151" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="4">
+      <c r="F151" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="4">
+      <c r="G151" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="4">
+      <c r="H151" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="4">
+      <c r="I151" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4556,10 +4604,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="4" t="s">
+      <c r="J153" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4603,28 +4651,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="4">
+      <c r="A155" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="4">
+      <c r="C155" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="4">
+      <c r="G155" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="4">
+      <c r="H155" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4649,28 +4697,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="4">
+      <c r="B157" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="4">
+      <c r="C157" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="4">
+      <c r="D157" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="4">
+      <c r="E157" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="4">
+      <c r="F157" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="4">
+      <c r="G157" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="4">
+      <c r="H157" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="4">
+      <c r="I157" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4758,10 +4806,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="4" t="s">
+      <c r="J160" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4805,28 +4853,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="4">
+      <c r="A162" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="4">
+      <c r="C162" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4851,28 +4899,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="4">
+      <c r="C164" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="4">
+      <c r="D164" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="4">
+      <c r="I164" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4931,10 +4979,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="4" t="s">
+      <c r="J166" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4978,28 +5026,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="4">
+      <c r="A168" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="4">
+      <c r="C168" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5024,28 +5072,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="4">
+      <c r="I170" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5104,10 +5152,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="4" t="s">
+      <c r="J172" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5151,28 +5199,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="4">
+      <c r="A174" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="4">
+      <c r="C174" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5197,28 +5245,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="4">
+      <c r="C176" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="4">
+      <c r="D176" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="4">
+      <c r="I176" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5306,10 +5354,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="4" t="s">
+      <c r="J179" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5353,28 +5401,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="4">
+      <c r="A181" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="4">
+      <c r="B181" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="4">
+      <c r="C181" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="4">
+      <c r="E181" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="4">
+      <c r="F181" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="4">
+      <c r="G181" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="4">
+      <c r="H181" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5399,28 +5447,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="4">
+      <c r="C183" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="4">
+      <c r="D183" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="4">
+      <c r="G183" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="4">
+      <c r="H183" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="4">
+      <c r="I183" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5537,10 +5585,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="4" t="s">
+      <c r="J187" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5584,28 +5632,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="4">
+      <c r="A189" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="4">
+      <c r="B189" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="4">
+      <c r="C189" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="4">
+      <c r="E189" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="4">
+      <c r="F189" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="4">
+      <c r="G189" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="4">
+      <c r="H189" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5630,28 +5678,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="4">
+      <c r="B191" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="4">
+      <c r="C191" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="4">
+      <c r="D191" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="4">
+      <c r="E191" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="4">
+      <c r="F191" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="4">
+      <c r="G191" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="4">
+      <c r="H191" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="4">
+      <c r="I191" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5710,10 +5758,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="4" t="s">
+      <c r="J193" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5757,28 +5805,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="4">
+      <c r="A195" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="4">
+      <c r="B195" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="4">
+      <c r="C195" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="4">
+      <c r="E195" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="4">
+      <c r="F195" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="4">
+      <c r="G195" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="4">
+      <c r="H195" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5803,28 +5851,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="4">
+      <c r="C197" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="4">
+      <c r="D197" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="4">
+      <c r="E197" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="4">
+      <c r="F197" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="4">
+      <c r="G197" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="4">
+      <c r="H197" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="4">
+      <c r="I197" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5883,10 +5931,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="4" t="s">
+      <c r="J199" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5930,28 +5978,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="4">
+      <c r="A201" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="4">
+      <c r="B201" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="4">
+      <c r="C201" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="4">
+      <c r="E201" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="4">
+      <c r="F201" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="4">
+      <c r="G201" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="4">
+      <c r="H201" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5976,28 +6024,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="4">
+      <c r="B203" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="4">
+      <c r="C203" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="4">
+      <c r="D203" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="4">
+      <c r="E203" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="4">
+      <c r="F203" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="4">
+      <c r="G203" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="4">
+      <c r="H203" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="4">
+      <c r="I203" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6056,10 +6104,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="4" t="s">
+      <c r="J205" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6103,28 +6151,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="4">
+      <c r="A207" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="4">
+      <c r="C207" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="4">
+      <c r="E207" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="4">
+      <c r="F207" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="4">
+      <c r="G207" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="4">
+      <c r="H207" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6149,28 +6197,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="4">
+      <c r="B209" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="4">
+      <c r="C209" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="4">
+      <c r="D209" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="4">
+      <c r="E209" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="4">
+      <c r="F209" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="4">
+      <c r="G209" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="4">
+      <c r="H209" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="4">
+      <c r="I209" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6287,10 +6335,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="4" t="s">
+      <c r="J213" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6334,28 +6382,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="4">
+      <c r="A215" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="4">
+      <c r="B215" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="4">
+      <c r="C215" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="4">
+      <c r="E215" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="4">
+      <c r="F215" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="4">
+      <c r="G215" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="4">
+      <c r="H215" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6380,28 +6428,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="4">
+      <c r="B217" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="4">
+      <c r="C217" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="4">
+      <c r="D217" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="4">
+      <c r="E217" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="4">
+      <c r="F217" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="4">
+      <c r="G217" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="4">
+      <c r="H217" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="4">
+      <c r="I217" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6460,10 +6508,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="4" t="s">
+      <c r="J219" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6507,28 +6555,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="4">
+      <c r="A221" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="4">
+      <c r="C221" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6553,28 +6601,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="4">
+      <c r="B223" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="4">
+      <c r="C223" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="4">
+      <c r="D223" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="4">
+      <c r="E223" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="4">
+      <c r="F223" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="4">
+      <c r="G223" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="4">
+      <c r="H223" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="4">
+      <c r="I223" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6633,10 +6681,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="4" t="s">
+      <c r="J225" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6680,28 +6728,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="4">
+      <c r="A227" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="4">
+      <c r="C227" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6726,28 +6774,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="4">
+      <c r="B229" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="4">
+      <c r="C229" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="4">
+      <c r="D229" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="4">
+      <c r="E229" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="4">
+      <c r="F229" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="4">
+      <c r="G229" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="4">
+      <c r="H229" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="4">
+      <c r="I229" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6835,10 +6883,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="4" t="s">
+      <c r="J232" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6882,28 +6930,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="4">
+      <c r="A234" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="4">
+      <c r="B234" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="4">
+      <c r="C234" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="4">
+      <c r="E234" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="4">
+      <c r="F234" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="4">
+      <c r="G234" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="4">
+      <c r="H234" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6928,28 +6976,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="4">
+      <c r="B236" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="4">
+      <c r="C236" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="4">
+      <c r="D236" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="4">
+      <c r="E236" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="4">
+      <c r="F236" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="4">
+      <c r="G236" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="4">
+      <c r="H236" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="4">
+      <c r="I236" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7008,10 +7056,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="4" t="s">
+      <c r="J238" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7055,28 +7103,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="4">
+      <c r="A240" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="4">
+      <c r="B240" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="4">
+      <c r="C240" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="4">
+      <c r="E240" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="4">
+      <c r="F240" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="4">
+      <c r="G240" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="4">
+      <c r="H240" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7101,28 +7149,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="4">
+      <c r="B242" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="4">
+      <c r="C242" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="4">
+      <c r="D242" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="4">
+      <c r="E242" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="4">
+      <c r="F242" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="4">
+      <c r="G242" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="4">
+      <c r="H242" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="4">
+      <c r="I242" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7181,10 +7229,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="4" t="s">
+      <c r="J244" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7228,28 +7276,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="4">
+      <c r="A246" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="4">
+      <c r="B246" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="4">
+      <c r="C246" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="4">
+      <c r="E246" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="4">
+      <c r="F246" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="4">
+      <c r="G246" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="4">
+      <c r="H246" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7274,28 +7322,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="4">
+      <c r="B248" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="4">
+      <c r="C248" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="4">
+      <c r="D248" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="4">
+      <c r="E248" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="4">
+      <c r="F248" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="4">
+      <c r="G248" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="4">
+      <c r="H248" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="4">
+      <c r="I248" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7354,10 +7402,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="4" t="s">
+      <c r="J250" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7401,28 +7449,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="4">
+      <c r="A252" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="4">
+      <c r="B252" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="4">
+      <c r="C252" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="4">
+      <c r="E252" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="4">
+      <c r="F252" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="4">
+      <c r="G252" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="4">
+      <c r="H252" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7447,28 +7495,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="4">
+      <c r="B254" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="4">
+      <c r="C254" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="4">
+      <c r="D254" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="4">
+      <c r="E254" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="4">
+      <c r="F254" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="4">
+      <c r="G254" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="4">
+      <c r="H254" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="4">
+      <c r="I254" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7527,10 +7575,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="4" t="s">
+      <c r="J256" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7574,28 +7622,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="4">
+      <c r="A258" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="4">
+      <c r="B258" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="4">
+      <c r="C258" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="4">
+      <c r="E258" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="4">
+      <c r="F258" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="4">
+      <c r="G258" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="4">
+      <c r="H258" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7620,28 +7668,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="4">
+      <c r="B260" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="4">
+      <c r="C260" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="4">
+      <c r="D260" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="4">
+      <c r="E260" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="4">
+      <c r="F260" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="4">
+      <c r="G260" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="4">
+      <c r="H260" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="4">
+      <c r="I260" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7700,10 +7748,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="4" t="s">
+      <c r="J262" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7747,28 +7795,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="4">
+      <c r="A264" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="4">
+      <c r="C264" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7793,28 +7841,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="4">
+      <c r="B266" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="4">
+      <c r="C266" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="4">
+      <c r="D266" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="4">
+      <c r="E266" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="4">
+      <c r="F266" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="4">
+      <c r="G266" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="4">
+      <c r="H266" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="4">
+      <c r="I266" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7873,10 +7921,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="4" t="s">
+      <c r="J268" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7920,28 +7968,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="4">
+      <c r="A270" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="4">
+      <c r="B270" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="4">
+      <c r="C270" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="4">
+      <c r="E270" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="4">
+      <c r="F270" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="4">
+      <c r="G270" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="4">
+      <c r="H270" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7966,28 +8014,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="4">
+      <c r="B272" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="4">
+      <c r="C272" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="4">
+      <c r="D272" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="4">
+      <c r="E272" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="4">
+      <c r="F272" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="4">
+      <c r="G272" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="4">
+      <c r="H272" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="4">
+      <c r="I272" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8133,10 +8181,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="4" t="s">
+      <c r="J277" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8180,28 +8228,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="4">
+      <c r="A279" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="4">
+      <c r="B279" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="4">
+      <c r="C279" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="4">
+      <c r="E279" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="4">
+      <c r="F279" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="4">
+      <c r="G279" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="4">
+      <c r="H279" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8226,28 +8274,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="4">
+      <c r="B281" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="4">
+      <c r="C281" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="4">
+      <c r="D281" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="4">
+      <c r="E281" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="4">
+      <c r="F281" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="4">
+      <c r="G281" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="4">
+      <c r="H281" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="4">
+      <c r="I281" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8306,10 +8354,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="4" t="s">
+      <c r="J283" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8353,28 +8401,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="4">
+      <c r="A285" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="4">
+      <c r="B285" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="4">
+      <c r="C285" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="4">
+      <c r="E285" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="4">
+      <c r="F285" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="4">
+      <c r="G285" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="4">
+      <c r="H285" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8399,28 +8447,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="4">
+      <c r="B287" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="4">
+      <c r="C287" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="4">
+      <c r="D287" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="4">
+      <c r="E287" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="4">
+      <c r="F287" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="4">
+      <c r="G287" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="4">
+      <c r="H287" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="4">
+      <c r="I287" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8508,10 +8556,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="4" t="s">
+      <c r="J290" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8555,28 +8603,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="4">
+      <c r="A292" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="4">
+      <c r="B292" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="4">
+      <c r="C292" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="4">
+      <c r="E292" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="4">
+      <c r="F292" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="4">
+      <c r="G292" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="4">
+      <c r="H292" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8601,28 +8649,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="4">
+      <c r="B294" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="4">
+      <c r="C294" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="4">
+      <c r="D294" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="4">
+      <c r="E294" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="4">
+      <c r="F294" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="4">
+      <c r="G294" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="4">
+      <c r="H294" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="4">
+      <c r="I294" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8681,10 +8729,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="4" t="s">
+      <c r="J296" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8728,28 +8776,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="4">
+      <c r="A298" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="4">
+      <c r="B298" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="4">
+      <c r="C298" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="4">
+      <c r="E298" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="4">
+      <c r="F298" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="4">
+      <c r="G298" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="4">
+      <c r="H298" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8774,28 +8822,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="4">
+      <c r="B300" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="4">
+      <c r="C300" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="4">
+      <c r="D300" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="4">
+      <c r="E300" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="4">
+      <c r="F300" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="4">
+      <c r="G300" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="4">
+      <c r="H300" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="4">
+      <c r="I300" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8883,10 +8931,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="4" t="s">
+      <c r="J303" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8930,28 +8978,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="4">
+      <c r="A305" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="4">
+      <c r="B305" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="4">
+      <c r="C305" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="4">
+      <c r="E305" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="4">
+      <c r="F305" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="4">
+      <c r="G305" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="4">
+      <c r="H305" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8976,28 +9024,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="4">
+      <c r="C307" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="4">
+      <c r="D307" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="4">
+      <c r="E307" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="4">
+      <c r="F307" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="4">
+      <c r="G307" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="4">
+      <c r="H307" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="4">
+      <c r="I307" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9056,10 +9104,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="4" t="s">
+      <c r="J309" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9103,28 +9151,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="4">
+      <c r="A311" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="4">
+      <c r="B311" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="4">
+      <c r="C311" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="4">
+      <c r="E311" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="4">
+      <c r="F311" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="4">
+      <c r="G311" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="4">
+      <c r="H311" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9149,28 +9197,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="4">
+      <c r="C313" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="4">
+      <c r="D313" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="4">
+      <c r="I313" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9229,10 +9277,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="4" t="s">
+      <c r="J315" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9276,28 +9324,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="4">
+      <c r="A317" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="4">
+      <c r="B317" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="4">
+      <c r="C317" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="4">
+      <c r="E317" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="4">
+      <c r="F317" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="4">
+      <c r="G317" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="4">
+      <c r="H317" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9322,28 +9370,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="4">
+      <c r="B319" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="4">
+      <c r="C319" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="4">
+      <c r="D319" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="4">
+      <c r="E319" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="4">
+      <c r="F319" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="4">
+      <c r="G319" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="4">
+      <c r="H319" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="4">
+      <c r="I319" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9402,10 +9450,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="4" t="s">
+      <c r="J321" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9449,28 +9497,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="4">
+      <c r="A323" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="4">
+      <c r="B323" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="4">
+      <c r="C323" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="4">
+      <c r="E323" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="4">
+      <c r="F323" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="4">
+      <c r="G323" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="4">
+      <c r="H323" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9495,28 +9543,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="4">
+      <c r="B325" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="4">
+      <c r="C325" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="4">
+      <c r="D325" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="4">
+      <c r="E325" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="4">
+      <c r="F325" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="4">
+      <c r="G325" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="4">
+      <c r="H325" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="4">
+      <c r="I325" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9575,10 +9623,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="4" t="s">
+      <c r="J327" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9622,28 +9670,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="4">
+      <c r="A329" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="4">
+      <c r="B329" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="4">
+      <c r="C329" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="4">
+      <c r="E329" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="4">
+      <c r="F329" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="4">
+      <c r="G329" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="4">
+      <c r="H329" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9668,28 +9716,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="4">
+      <c r="B331" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="4">
+      <c r="C331" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="4">
+      <c r="D331" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="4">
+      <c r="E331" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="4">
+      <c r="F331" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="4">
+      <c r="G331" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="4">
+      <c r="H331" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="4">
+      <c r="I331" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9748,10 +9796,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="4" t="s">
+      <c r="J333" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9795,28 +9843,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="4">
+      <c r="A335" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="4">
+      <c r="B335" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="4">
+      <c r="C335" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="4">
+      <c r="E335" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="4">
+      <c r="F335" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="4">
+      <c r="G335" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="4">
+      <c r="H335" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9841,28 +9889,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="4">
+      <c r="B337" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="4">
+      <c r="C337" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="4">
+      <c r="D337" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="4">
+      <c r="E337" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="4">
+      <c r="F337" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="4">
+      <c r="G337" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="4">
+      <c r="H337" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="4">
+      <c r="I337" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9921,10 +9969,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="4" t="s">
+      <c r="J339" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9968,28 +10016,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="4">
+      <c r="A341" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="4">
+      <c r="B341" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="4">
+      <c r="C341" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="4">
+      <c r="E341" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="4">
+      <c r="F341" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="4">
+      <c r="G341" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="4">
+      <c r="H341" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10014,28 +10062,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="4">
+      <c r="B343" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="4">
+      <c r="C343" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="4">
+      <c r="D343" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="4">
+      <c r="E343" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="4">
+      <c r="F343" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="4">
+      <c r="G343" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="4">
+      <c r="H343" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="4">
+      <c r="I343" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10094,10 +10142,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="4" t="s">
+      <c r="J345" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10141,28 +10189,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="4">
+      <c r="A347" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="4">
+      <c r="B347" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="4">
+      <c r="C347" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="4">
+      <c r="E347" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="4">
+      <c r="F347" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="4">
+      <c r="G347" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="4">
+      <c r="H347" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10187,28 +10235,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="4">
+      <c r="B349" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="4">
+      <c r="C349" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="4">
+      <c r="D349" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="4">
+      <c r="E349" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="4">
+      <c r="F349" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="4">
+      <c r="G349" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="4">
+      <c r="H349" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="4">
+      <c r="I349" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10267,10 +10315,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="4" t="s">
+      <c r="J351" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10314,28 +10362,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="4">
+      <c r="A353" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="4">
+      <c r="B353" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="4">
+      <c r="C353" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="4">
+      <c r="E353" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="4">
+      <c r="F353" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="4">
+      <c r="G353" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="4">
+      <c r="H353" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10360,28 +10408,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="4">
+      <c r="B355" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="4">
+      <c r="C355" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="4">
+      <c r="D355" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="4">
+      <c r="E355" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="4">
+      <c r="F355" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="4">
+      <c r="G355" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="4">
+      <c r="H355" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="4">
+      <c r="I355" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10440,10 +10488,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="4" t="s">
+      <c r="J357" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10487,28 +10535,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="4">
+      <c r="A359" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="4">
+      <c r="B359" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="4">
+      <c r="C359" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="4">
+      <c r="E359" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="4">
+      <c r="F359" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="4">
+      <c r="G359" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="4">
+      <c r="H359" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10533,28 +10581,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="4">
+      <c r="B361" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="4">
+      <c r="C361" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="4">
+      <c r="D361" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="4">
+      <c r="E361" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="4">
+      <c r="F361" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="4">
+      <c r="G361" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="4">
+      <c r="H361" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="4">
+      <c r="I361" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10613,10 +10661,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="4" t="s">
+      <c r="J363" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10660,28 +10708,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="4">
+      <c r="A365" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="4">
+      <c r="B365" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="4">
+      <c r="C365" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="4">
+      <c r="E365" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="4">
+      <c r="F365" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="4">
+      <c r="G365" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="4">
+      <c r="H365" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10706,28 +10754,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="4">
+      <c r="B367" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="4">
+      <c r="C367" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="4">
+      <c r="D367" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="4">
+      <c r="E367" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="4">
+      <c r="F367" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="4">
+      <c r="G367" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="4">
+      <c r="H367" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="4">
+      <c r="I367" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10786,10 +10834,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="4" t="s">
+      <c r="J369" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10833,28 +10881,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="4">
+      <c r="A371" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="4">
+      <c r="B371" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="4">
+      <c r="C371" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="4">
+      <c r="E371" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="4">
+      <c r="F371" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="4">
+      <c r="G371" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="4">
+      <c r="H371" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10879,28 +10927,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="4">
+      <c r="B373" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="4">
+      <c r="C373" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="4">
+      <c r="D373" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="4">
+      <c r="E373" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="4">
+      <c r="F373" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="4">
+      <c r="G373" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="4">
+      <c r="H373" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="4">
+      <c r="I373" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10988,10 +11036,10 @@
       <c r="I376">
         <f>((C376-C375)^2+(D376- D375)^2)^.5</f>
       </c>
-      <c r="J376" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K376" s="4" t="s">
+      <c r="J376" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K376" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L376" t="n">
@@ -11035,28 +11083,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="s" s="4">
+      <c r="A378" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B378" t="s" s="4">
+      <c r="B378" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C378" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D378" t="s" s="4">
+      <c r="C378" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E378" t="s" s="4">
+      <c r="E378" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F378" t="s" s="4">
+      <c r="F378" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G378" t="s" s="4">
+      <c r="G378" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H378" t="s" s="4">
+      <c r="H378" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11081,28 +11129,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="B380" t="s" s="4">
+      <c r="B380" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C380" t="s" s="4">
+      <c r="C380" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D380" t="s" s="4">
+      <c r="D380" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E380" t="s" s="4">
+      <c r="E380" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F380" t="s" s="4">
+      <c r="F380" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G380" t="s" s="4">
+      <c r="G380" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H380" t="s" s="4">
+      <c r="H380" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I380" t="s" s="4">
+      <c r="I380" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11161,10 +11209,10 @@
       <c r="I382">
         <f>((C382-C381)^2+(D382- D381)^2)^.5</f>
       </c>
-      <c r="J382" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K382" s="4" t="s">
+      <c r="J382" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K382" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L382" t="n">
@@ -11208,28 +11256,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="s" s="4">
+      <c r="A384" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B384" t="s" s="4">
+      <c r="B384" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C384" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D384" t="s" s="4">
+      <c r="C384" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E384" t="s" s="4">
+      <c r="E384" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F384" t="s" s="4">
+      <c r="F384" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G384" t="s" s="4">
+      <c r="G384" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H384" t="s" s="4">
+      <c r="H384" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11254,28 +11302,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="B386" t="s" s="4">
+      <c r="B386" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C386" t="s" s="4">
+      <c r="C386" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D386" t="s" s="4">
+      <c r="D386" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E386" t="s" s="4">
+      <c r="E386" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F386" t="s" s="4">
+      <c r="F386" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G386" t="s" s="4">
+      <c r="G386" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H386" t="s" s="4">
+      <c r="H386" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I386" t="s" s="4">
+      <c r="I386" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11334,10 +11382,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="4" t="s">
+      <c r="J388" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11381,28 +11429,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="4">
+      <c r="A390" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="4">
+      <c r="B390" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="4">
+      <c r="C390" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="4">
+      <c r="E390" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="4">
+      <c r="F390" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="4">
+      <c r="G390" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="4">
+      <c r="H390" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11427,28 +11475,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="4">
+      <c r="B392" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="4">
+      <c r="C392" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="4">
+      <c r="D392" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="4">
+      <c r="E392" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="4">
+      <c r="F392" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="4">
+      <c r="G392" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="4">
+      <c r="H392" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="4">
+      <c r="I392" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11507,10 +11555,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="4" t="s">
+      <c r="J394" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11554,28 +11602,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="4">
+      <c r="A396" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="4">
+      <c r="B396" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="4">
+      <c r="C396" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="4">
+      <c r="E396" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="4">
+      <c r="F396" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="4">
+      <c r="G396" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="4">
+      <c r="H396" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11600,28 +11648,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="4">
+      <c r="B398" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="4">
+      <c r="C398" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="4">
+      <c r="D398" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="4">
+      <c r="E398" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="4">
+      <c r="F398" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="4">
+      <c r="G398" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="4">
+      <c r="H398" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="4">
+      <c r="I398" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11680,10 +11728,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="4" t="s">
+      <c r="J400" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11727,28 +11775,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="4">
+      <c r="A402" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="4">
+      <c r="B402" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="4">
+      <c r="C402" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="4">
+      <c r="E402" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="4">
+      <c r="F402" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="4">
+      <c r="G402" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="4">
+      <c r="H402" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11773,28 +11821,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="4">
+      <c r="B404" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="4">
+      <c r="C404" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="4">
+      <c r="D404" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="4">
+      <c r="E404" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="4">
+      <c r="F404" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="4">
+      <c r="G404" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="4">
+      <c r="H404" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="4">
+      <c r="I404" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -11853,10 +11901,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="4" t="s">
+      <c r="J406" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11900,28 +11948,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="4">
+      <c r="A408" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="4">
+      <c r="B408" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="4">
+      <c r="C408" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="4">
+      <c r="E408" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="4">
+      <c r="F408" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="4">
+      <c r="G408" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="4">
+      <c r="H408" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -11946,28 +11994,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="4">
+      <c r="B410" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="4">
+      <c r="C410" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="4">
+      <c r="D410" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="4">
+      <c r="E410" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="4">
+      <c r="F410" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="4">
+      <c r="G410" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="4">
+      <c r="H410" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="4">
+      <c r="I410" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12084,10 +12132,10 @@
       <c r="I414">
         <f>((C414-C413)^2+(D414- D413)^2)^.5</f>
       </c>
-      <c r="J414" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K414" s="4" t="s">
+      <c r="J414" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K414" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L414" t="n">
@@ -12131,28 +12179,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="s" s="4">
+      <c r="A416" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B416" t="s" s="4">
+      <c r="B416" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C416" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D416" t="s" s="4">
+      <c r="C416" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D416" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E416" t="s" s="4">
+      <c r="E416" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F416" t="s" s="4">
+      <c r="F416" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G416" t="s" s="4">
+      <c r="G416" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H416" t="s" s="4">
+      <c r="H416" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12177,28 +12225,28 @@
       </c>
     </row>
     <row r="418">
-      <c r="B418" t="s" s="4">
+      <c r="B418" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C418" t="s" s="4">
+      <c r="C418" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D418" t="s" s="4">
+      <c r="D418" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E418" t="s" s="4">
+      <c r="E418" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F418" t="s" s="4">
+      <c r="F418" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G418" t="s" s="4">
+      <c r="G418" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H418" t="s" s="4">
+      <c r="H418" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I418" t="s" s="4">
+      <c r="I418" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12286,10 +12334,10 @@
       <c r="I421">
         <f>((C421-C420)^2+(D421- D420)^2)^.5</f>
       </c>
-      <c r="J421" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K421" s="4" t="s">
+      <c r="J421" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K421" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L421" t="n">
@@ -12333,28 +12381,28 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="s" s="4">
+      <c r="A423" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B423" t="s" s="4">
+      <c r="B423" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C423" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D423" t="s" s="4">
+      <c r="C423" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D423" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E423" t="s" s="4">
+      <c r="E423" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F423" t="s" s="4">
+      <c r="F423" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G423" t="s" s="4">
+      <c r="G423" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H423" t="s" s="4">
+      <c r="H423" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12379,28 +12427,28 @@
       </c>
     </row>
     <row r="425">
-      <c r="B425" t="s" s="4">
+      <c r="B425" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C425" t="s" s="4">
+      <c r="C425" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D425" t="s" s="4">
+      <c r="D425" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E425" t="s" s="4">
+      <c r="E425" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F425" t="s" s="4">
+      <c r="F425" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G425" t="s" s="4">
+      <c r="G425" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H425" t="s" s="4">
+      <c r="H425" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I425" t="s" s="4">
+      <c r="I425" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12488,10 +12536,10 @@
       <c r="I428">
         <f>((C428-C427)^2+(D428- D427)^2)^.5</f>
       </c>
-      <c r="J428" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K428" s="4" t="s">
+      <c r="J428" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K428" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L428" t="n">
@@ -12535,28 +12583,28 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="s" s="4">
+      <c r="A430" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B430" t="s" s="4">
+      <c r="B430" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C430" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D430" t="s" s="4">
+      <c r="C430" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D430" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E430" t="s" s="4">
+      <c r="E430" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F430" t="s" s="4">
+      <c r="F430" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G430" t="s" s="4">
+      <c r="G430" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H430" t="s" s="4">
+      <c r="H430" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -12581,28 +12629,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="B432" t="s" s="4">
+      <c r="B432" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C432" t="s" s="4">
+      <c r="C432" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D432" t="s" s="4">
+      <c r="D432" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E432" t="s" s="4">
+      <c r="E432" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F432" t="s" s="4">
+      <c r="F432" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G432" t="s" s="4">
+      <c r="G432" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H432" t="s" s="4">
+      <c r="H432" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I432" t="s" s="4">
+      <c r="I432" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -12719,10 +12767,10 @@
       <c r="I436">
         <f>((C436-C435)^2+(D436- D435)^2)^.5</f>
       </c>
-      <c r="J436" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K436" s="4" t="s">
+      <c r="J436" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K436" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L436" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c106_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14664" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18330" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -421,10 +439,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="12" t="s">
+      <c r="J8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -468,28 +486,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="12">
+      <c r="A10" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="12">
+      <c r="B10" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="12">
+      <c r="C10" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="12">
+      <c r="E10" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="12">
+      <c r="F10" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="12">
+      <c r="G10" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="12">
+      <c r="H10" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -514,28 +532,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="12">
+      <c r="B12" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="12">
+      <c r="D12" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="12">
+      <c r="F12" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="12">
+      <c r="H12" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="12">
+      <c r="I12" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -652,10 +670,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="J16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -699,28 +717,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="12">
+      <c r="C18" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -745,28 +763,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="12">
+      <c r="I20" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -883,10 +901,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="12" t="s">
+      <c r="J24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -930,28 +948,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="12">
+      <c r="A26" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="12">
+      <c r="C26" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -976,28 +994,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="12">
+      <c r="C28" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="D28" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F28" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="12">
+      <c r="G28" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="12">
+      <c r="I28" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1056,10 +1074,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="12" t="s">
+      <c r="J30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1103,28 +1121,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="12">
+      <c r="A32" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="12">
+      <c r="C32" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1149,28 +1167,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="12">
+      <c r="C34" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="D34" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="12">
+      <c r="I34" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1247,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="12" t="s">
+      <c r="J36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1276,28 +1294,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="12">
+      <c r="A38" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="12">
+      <c r="B38" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="12">
+      <c r="C38" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E38" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="12">
+      <c r="F38" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="12">
+      <c r="G38" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="12">
+      <c r="H38" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1340,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="12">
+      <c r="C40" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="12">
+      <c r="D40" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="12">
+      <c r="I40" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1431,10 +1449,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="12" t="s">
+      <c r="J43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1478,28 +1496,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="12">
+      <c r="A45" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="12">
+      <c r="B45" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="12">
+      <c r="C45" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="12">
+      <c r="E45" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="12">
+      <c r="F45" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="12">
+      <c r="G45" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="12">
+      <c r="H45" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1524,28 +1542,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="12">
+      <c r="B47" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="12">
+      <c r="C47" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="12">
+      <c r="D47" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="12">
+      <c r="E47" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="12">
+      <c r="F47" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="12">
+      <c r="G47" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="12">
+      <c r="H47" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="12">
+      <c r="I47" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1604,10 +1622,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="12" t="s">
+      <c r="J49" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1651,28 +1669,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="12">
+      <c r="A51" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="12">
+      <c r="B51" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="12">
+      <c r="C51" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="12">
+      <c r="E51" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="12">
+      <c r="F51" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="12">
+      <c r="G51" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="12">
+      <c r="H51" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1697,28 +1715,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="12">
+      <c r="B53" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="12">
+      <c r="C53" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="12">
+      <c r="D53" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="12">
+      <c r="E53" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="12">
+      <c r="F53" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="12">
+      <c r="G53" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="12">
+      <c r="H53" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="12">
+      <c r="I53" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1835,10 +1853,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="12" t="s">
+      <c r="J57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1882,28 +1900,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="12">
+      <c r="A59" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="12">
+      <c r="B59" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="12">
+      <c r="C59" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="12">
+      <c r="E59" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="12">
+      <c r="F59" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="12">
+      <c r="G59" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="12">
+      <c r="H59" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1928,28 +1946,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="12">
+      <c r="I61" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2008,10 +2026,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="12" t="s">
+      <c r="J63" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -2055,28 +2073,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="12">
+      <c r="A65" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="12">
+      <c r="B65" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="12">
+      <c r="C65" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="12">
+      <c r="E65" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="12">
+      <c r="F65" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="12">
+      <c r="G65" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="12">
+      <c r="H65" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2101,28 +2119,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="12">
+      <c r="B67" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="12">
+      <c r="C67" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="12">
+      <c r="D67" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="12">
+      <c r="E67" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="12">
+      <c r="F67" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="12">
+      <c r="G67" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="12">
+      <c r="H67" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="12">
+      <c r="I67" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2181,10 +2199,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="12" t="s">
+      <c r="J69" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2228,28 +2246,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="12">
+      <c r="A71" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="12">
+      <c r="C71" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2274,28 +2292,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="12">
+      <c r="C73" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="12">
+      <c r="D73" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="12">
+      <c r="I73" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2354,10 +2372,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="12" t="s">
+      <c r="J75" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2401,28 +2419,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="12">
+      <c r="A77" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="12">
+      <c r="B77" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="12">
+      <c r="C77" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="12">
+      <c r="E77" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="12">
+      <c r="F77" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="12">
+      <c r="G77" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="12">
+      <c r="H77" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2447,28 +2465,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="12">
+      <c r="B79" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="12">
+      <c r="C79" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="12">
+      <c r="D79" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="12">
+      <c r="E79" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="12">
+      <c r="F79" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="12">
+      <c r="G79" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="12">
+      <c r="H79" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="12">
+      <c r="I79" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2527,10 +2545,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="12" t="s">
+      <c r="J81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2574,28 +2592,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="12">
+      <c r="A83" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="12">
+      <c r="C83" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2620,28 +2638,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="12">
+      <c r="B85" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="12">
+      <c r="C85" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="12">
+      <c r="D85" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="12">
+      <c r="E85" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="12">
+      <c r="F85" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="12">
+      <c r="G85" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="12">
+      <c r="H85" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="12">
+      <c r="I85" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2758,10 +2776,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="12" t="s">
+      <c r="J89" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2805,28 +2823,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="12">
+      <c r="A91" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="12">
+      <c r="B91" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="12">
+      <c r="C91" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="12">
+      <c r="E91" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="12">
+      <c r="F91" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="12">
+      <c r="G91" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="12">
+      <c r="H91" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2851,28 +2869,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="12">
+      <c r="B93" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="12">
+      <c r="C93" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="12">
+      <c r="D93" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="12">
+      <c r="E93" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="12">
+      <c r="F93" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="12">
+      <c r="G93" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="12">
+      <c r="H93" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="12">
+      <c r="I93" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2931,10 +2949,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="12" t="s">
+      <c r="J95" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2978,28 +2996,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="12">
+      <c r="A97" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="12">
+      <c r="C97" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3024,28 +3042,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="12">
+      <c r="C99" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="12">
+      <c r="D99" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="12">
+      <c r="F99" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="12">
+      <c r="G99" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="12">
+      <c r="I99" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3104,10 +3122,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="12" t="s">
+      <c r="J101" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3151,28 +3169,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="12">
+      <c r="A103" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="12">
+      <c r="C103" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="12">
+      <c r="F103" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="12">
+      <c r="G103" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3197,28 +3215,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="12">
+      <c r="B105" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="12">
+      <c r="C105" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="12">
+      <c r="D105" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="12">
+      <c r="E105" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="12">
+      <c r="F105" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="12">
+      <c r="G105" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="12">
+      <c r="H105" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="12">
+      <c r="I105" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3277,10 +3295,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="12" t="s">
+      <c r="J107" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3324,28 +3342,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="12">
+      <c r="A109" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="12">
+      <c r="B109" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="12">
+      <c r="C109" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="12">
+      <c r="E109" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="12">
+      <c r="F109" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="12">
+      <c r="G109" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="12">
+      <c r="H109" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3370,28 +3388,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="12">
+      <c r="B111" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="12">
+      <c r="C111" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="12">
+      <c r="D111" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="12">
+      <c r="E111" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="12">
+      <c r="F111" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="12">
+      <c r="G111" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="12">
+      <c r="H111" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="12">
+      <c r="I111" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3450,10 +3468,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="12" t="s">
+      <c r="J113" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3497,28 +3515,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="12">
+      <c r="A115" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="12">
+      <c r="C115" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="12">
+      <c r="F115" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3543,28 +3561,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="12">
+      <c r="B117" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="12">
+      <c r="C117" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="12">
+      <c r="D117" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="12">
+      <c r="E117" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="12">
+      <c r="F117" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="12">
+      <c r="G117" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="12">
+      <c r="H117" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="12">
+      <c r="I117" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3652,10 +3670,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="12" t="s">
+      <c r="J120" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3699,28 +3717,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="12">
+      <c r="A122" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="12">
+      <c r="B122" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="12">
+      <c r="C122" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="12">
+      <c r="E122" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="12">
+      <c r="F122" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="12">
+      <c r="G122" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="12">
+      <c r="H122" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3745,28 +3763,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="12">
+      <c r="B124" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="12">
+      <c r="C124" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="12">
+      <c r="D124" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="12">
+      <c r="F124" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="12">
+      <c r="H124" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="12">
+      <c r="I124" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3854,10 +3872,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="12" t="s">
+      <c r="J127" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3901,28 +3919,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="12">
+      <c r="A129" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="12">
+      <c r="B129" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="12">
+      <c r="C129" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="12">
+      <c r="E129" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="12">
+      <c r="F129" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="12">
+      <c r="G129" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="12">
+      <c r="H129" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3947,28 +3965,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="12">
+      <c r="B131" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="12">
+      <c r="C131" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="12">
+      <c r="D131" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="12">
+      <c r="E131" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="12">
+      <c r="F131" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="12">
+      <c r="G131" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="12">
+      <c r="H131" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="12">
+      <c r="I131" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4027,10 +4045,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="12" t="s">
+      <c r="J133" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4074,28 +4092,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="12">
+      <c r="A135" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="12">
+      <c r="C135" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4120,28 +4138,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="12">
+      <c r="B137" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="12">
+      <c r="C137" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="12">
+      <c r="D137" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="12">
+      <c r="E137" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="12">
+      <c r="F137" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="12">
+      <c r="G137" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="12">
+      <c r="H137" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="12">
+      <c r="I137" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4258,10 +4276,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="12" t="s">
+      <c r="J141" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4305,28 +4323,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="12">
+      <c r="A143" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="12">
+      <c r="B143" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="12">
+      <c r="C143" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="12">
+      <c r="E143" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="12">
+      <c r="F143" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="12">
+      <c r="G143" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="12">
+      <c r="H143" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4351,28 +4369,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="12">
+      <c r="B145" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="12">
+      <c r="C145" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="12">
+      <c r="D145" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="12">
+      <c r="E145" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="12">
+      <c r="F145" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="12">
+      <c r="G145" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="12">
+      <c r="H145" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="12">
+      <c r="I145" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4431,10 +4449,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="12" t="s">
+      <c r="J147" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4478,28 +4496,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="12">
+      <c r="A149" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="12">
+      <c r="B149" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="12">
+      <c r="C149" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="12">
+      <c r="E149" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="12">
+      <c r="F149" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="12">
+      <c r="G149" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="12">
+      <c r="H149" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4524,28 +4542,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="12">
+      <c r="B151" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="12">
+      <c r="C151" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="12">
+      <c r="D151" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="12">
+      <c r="E151" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="12">
+      <c r="F151" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="12">
+      <c r="G151" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="12">
+      <c r="H151" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="12">
+      <c r="I151" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4604,10 +4622,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="12" t="s">
+      <c r="J153" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4651,28 +4669,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="12">
+      <c r="A155" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="12">
+      <c r="C155" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="12">
+      <c r="E155" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="12">
+      <c r="F155" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="12">
+      <c r="G155" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="12">
+      <c r="H155" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4697,28 +4715,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="12">
+      <c r="B157" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="12">
+      <c r="C157" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="12">
+      <c r="D157" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="12">
+      <c r="E157" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="12">
+      <c r="F157" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="12">
+      <c r="G157" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="12">
+      <c r="H157" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="12">
+      <c r="I157" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4806,10 +4824,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="12" t="s">
+      <c r="J160" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4853,28 +4871,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="12">
+      <c r="A162" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="12">
+      <c r="C162" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4899,28 +4917,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="12">
+      <c r="C164" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="12">
+      <c r="D164" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="12">
+      <c r="I164" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4979,10 +4997,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="12" t="s">
+      <c r="J166" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -5026,28 +5044,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="12">
+      <c r="A168" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="12">
+      <c r="C168" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5072,28 +5090,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="12">
+      <c r="I170" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5152,10 +5170,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="12" t="s">
+      <c r="J172" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5199,28 +5217,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="12">
+      <c r="A174" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="12">
+      <c r="C174" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5245,28 +5263,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="12">
+      <c r="C176" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="12">
+      <c r="D176" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="12">
+      <c r="I176" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5354,10 +5372,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="12" t="s">
+      <c r="J179" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5401,28 +5419,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="12">
+      <c r="A181" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="12">
+      <c r="B181" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="12">
+      <c r="C181" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="12">
+      <c r="E181" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="12">
+      <c r="F181" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="12">
+      <c r="G181" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="12">
+      <c r="H181" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5447,28 +5465,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="12">
+      <c r="B183" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="12">
+      <c r="C183" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="12">
+      <c r="D183" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="12">
+      <c r="E183" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="12">
+      <c r="F183" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="12">
+      <c r="G183" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="12">
+      <c r="H183" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="12">
+      <c r="I183" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5585,10 +5603,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="12" t="s">
+      <c r="J187" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5632,28 +5650,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="12">
+      <c r="A189" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="12">
+      <c r="B189" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="12">
+      <c r="C189" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="12">
+      <c r="E189" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="12">
+      <c r="F189" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="12">
+      <c r="G189" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="12">
+      <c r="H189" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5678,28 +5696,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="12">
+      <c r="B191" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="12">
+      <c r="C191" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="12">
+      <c r="D191" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="12">
+      <c r="E191" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="12">
+      <c r="F191" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="12">
+      <c r="G191" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="12">
+      <c r="H191" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="12">
+      <c r="I191" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5758,10 +5776,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="12" t="s">
+      <c r="J193" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5805,28 +5823,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="12">
+      <c r="A195" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="12">
+      <c r="B195" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="12">
+      <c r="C195" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="12">
+      <c r="E195" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="12">
+      <c r="F195" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="12">
+      <c r="G195" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="12">
+      <c r="H195" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5851,28 +5869,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="12">
+      <c r="C197" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="12">
+      <c r="D197" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="12">
+      <c r="E197" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="12">
+      <c r="F197" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="12">
+      <c r="G197" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="12">
+      <c r="H197" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="12">
+      <c r="I197" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5931,10 +5949,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="12" t="s">
+      <c r="J199" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5978,28 +5996,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="12">
+      <c r="A201" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="12">
+      <c r="B201" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="12">
+      <c r="C201" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="12">
+      <c r="E201" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="12">
+      <c r="F201" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="12">
+      <c r="G201" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="12">
+      <c r="H201" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6024,28 +6042,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="12">
+      <c r="B203" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="12">
+      <c r="C203" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="12">
+      <c r="D203" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="12">
+      <c r="E203" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="12">
+      <c r="F203" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="12">
+      <c r="G203" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="12">
+      <c r="H203" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="12">
+      <c r="I203" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6104,10 +6122,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="12" t="s">
+      <c r="J205" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6151,28 +6169,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="12">
+      <c r="A207" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="12">
+      <c r="B207" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="12">
+      <c r="C207" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="12">
+      <c r="E207" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="12">
+      <c r="F207" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="12">
+      <c r="G207" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="12">
+      <c r="H207" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6197,28 +6215,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="12">
+      <c r="B209" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="12">
+      <c r="C209" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="12">
+      <c r="D209" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="12">
+      <c r="E209" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="12">
+      <c r="F209" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="12">
+      <c r="G209" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="12">
+      <c r="H209" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="12">
+      <c r="I209" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6335,10 +6353,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="12" t="s">
+      <c r="J213" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6382,28 +6400,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="12">
+      <c r="A215" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="12">
+      <c r="B215" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="12">
+      <c r="C215" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="12">
+      <c r="E215" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="12">
+      <c r="F215" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="12">
+      <c r="G215" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="12">
+      <c r="H215" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6428,28 +6446,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="12">
+      <c r="B217" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="12">
+      <c r="C217" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="12">
+      <c r="D217" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="12">
+      <c r="E217" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="12">
+      <c r="F217" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="12">
+      <c r="G217" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="12">
+      <c r="H217" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="12">
+      <c r="I217" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6508,10 +6526,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="12" t="s">
+      <c r="J219" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6555,28 +6573,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="12">
+      <c r="A221" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="12">
+      <c r="C221" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6601,28 +6619,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="12">
+      <c r="B223" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="12">
+      <c r="C223" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="12">
+      <c r="D223" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="12">
+      <c r="E223" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="12">
+      <c r="F223" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="12">
+      <c r="G223" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="12">
+      <c r="H223" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="12">
+      <c r="I223" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6681,10 +6699,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="12" t="s">
+      <c r="J225" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6728,28 +6746,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="12">
+      <c r="A227" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="12">
+      <c r="C227" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6774,28 +6792,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="12">
+      <c r="B229" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="12">
+      <c r="C229" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="12">
+      <c r="D229" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="12">
+      <c r="E229" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="12">
+      <c r="F229" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="12">
+      <c r="G229" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="12">
+      <c r="H229" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="12">
+      <c r="I229" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6883,10 +6901,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="12" t="s">
+      <c r="J232" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6930,28 +6948,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="12">
+      <c r="A234" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="12">
+      <c r="B234" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="12">
+      <c r="C234" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="12">
+      <c r="E234" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="12">
+      <c r="F234" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="12">
+      <c r="G234" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="12">
+      <c r="H234" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6976,28 +6994,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="12">
+      <c r="B236" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="12">
+      <c r="C236" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="12">
+      <c r="D236" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="12">
+      <c r="E236" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="12">
+      <c r="F236" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="12">
+      <c r="G236" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="12">
+      <c r="H236" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="12">
+      <c r="I236" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7056,10 +7074,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="12" t="s">
+      <c r="J238" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7103,28 +7121,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="12">
+      <c r="A240" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="12">
+      <c r="B240" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="12">
+      <c r="C240" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="12">
+      <c r="E240" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="12">
+      <c r="F240" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="12">
+      <c r="G240" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="12">
+      <c r="H240" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7149,28 +7167,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="12">
+      <c r="B242" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="12">
+      <c r="C242" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="12">
+      <c r="D242" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="12">
+      <c r="E242" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="12">
+      <c r="F242" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="12">
+      <c r="G242" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="12">
+      <c r="H242" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="12">
+      <c r="I242" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7229,10 +7247,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="12" t="s">
+      <c r="J244" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7276,28 +7294,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="12">
+      <c r="A246" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="12">
+      <c r="B246" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="12">
+      <c r="C246" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="12">
+      <c r="E246" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="12">
+      <c r="F246" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="12">
+      <c r="G246" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="12">
+      <c r="H246" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7322,28 +7340,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="12">
+      <c r="B248" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="12">
+      <c r="C248" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="12">
+      <c r="D248" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="12">
+      <c r="E248" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="12">
+      <c r="F248" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="12">
+      <c r="G248" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="12">
+      <c r="H248" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="12">
+      <c r="I248" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7402,10 +7420,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="12" t="s">
+      <c r="J250" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7449,28 +7467,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="12">
+      <c r="A252" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="12">
+      <c r="B252" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="12">
+      <c r="C252" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="12">
+      <c r="E252" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="12">
+      <c r="F252" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="12">
+      <c r="G252" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="12">
+      <c r="H252" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7495,28 +7513,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="12">
+      <c r="B254" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="12">
+      <c r="C254" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="12">
+      <c r="D254" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="12">
+      <c r="E254" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="12">
+      <c r="F254" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="12">
+      <c r="G254" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="12">
+      <c r="H254" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="12">
+      <c r="I254" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7575,10 +7593,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="12" t="s">
+      <c r="J256" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7622,28 +7640,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="12">
+      <c r="A258" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="12">
+      <c r="B258" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="12">
+      <c r="C258" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="12">
+      <c r="E258" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="12">
+      <c r="F258" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="12">
+      <c r="G258" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="12">
+      <c r="H258" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7668,28 +7686,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="12">
+      <c r="B260" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="12">
+      <c r="C260" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="12">
+      <c r="D260" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="12">
+      <c r="E260" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="12">
+      <c r="F260" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="12">
+      <c r="G260" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="12">
+      <c r="H260" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="12">
+      <c r="I260" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7748,10 +7766,10 @@
       <c r="I262">
         <f>((C262-C261)^2+(D262- D261)^2)^.5</f>
       </c>
-      <c r="J262" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K262" s="12" t="s">
+      <c r="J262" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K262" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L262" t="n">
@@ -7795,28 +7813,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="s" s="12">
+      <c r="A264" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C264" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D264" t="s" s="12">
+      <c r="C264" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D264" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7841,28 +7859,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="B266" t="s" s="12">
+      <c r="B266" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C266" t="s" s="12">
+      <c r="C266" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D266" t="s" s="12">
+      <c r="D266" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E266" t="s" s="12">
+      <c r="E266" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F266" t="s" s="12">
+      <c r="F266" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G266" t="s" s="12">
+      <c r="G266" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H266" t="s" s="12">
+      <c r="H266" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I266" t="s" s="12">
+      <c r="I266" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7921,10 +7939,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="12" t="s">
+      <c r="J268" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7968,28 +7986,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="12">
+      <c r="A270" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="12">
+      <c r="B270" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="12">
+      <c r="C270" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="12">
+      <c r="E270" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="12">
+      <c r="F270" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="12">
+      <c r="G270" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="12">
+      <c r="H270" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8014,28 +8032,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="12">
+      <c r="B272" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="12">
+      <c r="C272" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="12">
+      <c r="D272" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="12">
+      <c r="E272" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="12">
+      <c r="F272" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="12">
+      <c r="G272" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="12">
+      <c r="H272" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="12">
+      <c r="I272" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8181,10 +8199,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="12" t="s">
+      <c r="J277" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8228,28 +8246,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="12">
+      <c r="A279" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="12">
+      <c r="B279" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="12">
+      <c r="C279" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="12">
+      <c r="E279" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="12">
+      <c r="F279" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="12">
+      <c r="G279" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="12">
+      <c r="H279" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8274,28 +8292,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="12">
+      <c r="B281" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="12">
+      <c r="C281" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="12">
+      <c r="D281" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="12">
+      <c r="E281" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="12">
+      <c r="F281" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="12">
+      <c r="G281" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="12">
+      <c r="H281" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="12">
+      <c r="I281" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8354,10 +8372,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="12" t="s">
+      <c r="J283" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8401,28 +8419,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="12">
+      <c r="A285" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="12">
+      <c r="B285" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="12">
+      <c r="C285" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="12">
+      <c r="E285" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="12">
+      <c r="F285" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="12">
+      <c r="G285" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="12">
+      <c r="H285" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8447,28 +8465,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="12">
+      <c r="B287" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="12">
+      <c r="C287" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="12">
+      <c r="D287" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="12">
+      <c r="E287" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="12">
+      <c r="F287" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="12">
+      <c r="G287" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="12">
+      <c r="H287" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="12">
+      <c r="I287" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8556,10 +8574,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="12" t="s">
+      <c r="J290" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8603,28 +8621,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="12">
+      <c r="A292" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="12">
+      <c r="B292" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="12">
+      <c r="C292" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="12">
+      <c r="E292" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="12">
+      <c r="F292" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="12">
+      <c r="G292" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="12">
+      <c r="H292" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8649,28 +8667,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="12">
+      <c r="B294" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="12">
+      <c r="C294" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="12">
+      <c r="D294" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="12">
+      <c r="E294" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="12">
+      <c r="F294" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="12">
+      <c r="G294" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="12">
+      <c r="H294" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="12">
+      <c r="I294" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8729,10 +8747,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="12" t="s">
+      <c r="J296" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8776,28 +8794,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="12">
+      <c r="A298" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="12">
+      <c r="B298" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="12">
+      <c r="C298" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="12">
+      <c r="E298" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="12">
+      <c r="F298" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="12">
+      <c r="G298" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="12">
+      <c r="H298" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8822,28 +8840,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="12">
+      <c r="B300" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="12">
+      <c r="C300" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="12">
+      <c r="D300" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="12">
+      <c r="E300" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="12">
+      <c r="F300" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="12">
+      <c r="G300" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="12">
+      <c r="H300" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="12">
+      <c r="I300" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8931,10 +8949,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="12" t="s">
+      <c r="J303" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8978,28 +8996,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="12">
+      <c r="A305" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="12">
+      <c r="B305" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="12">
+      <c r="C305" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="12">
+      <c r="E305" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="12">
+      <c r="F305" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="12">
+      <c r="G305" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="12">
+      <c r="H305" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9024,28 +9042,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="12">
+      <c r="C307" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="12">
+      <c r="D307" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="12">
+      <c r="E307" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="12">
+      <c r="F307" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="12">
+      <c r="G307" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="12">
+      <c r="H307" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="12">
+      <c r="I307" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9104,10 +9122,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="12" t="s">
+      <c r="J309" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9151,28 +9169,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="12">
+      <c r="A311" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="12">
+      <c r="B311" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="12">
+      <c r="C311" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="12">
+      <c r="E311" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="12">
+      <c r="F311" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="12">
+      <c r="G311" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="12">
+      <c r="H311" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9197,28 +9215,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="12">
+      <c r="C313" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="12">
+      <c r="D313" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="12">
+      <c r="I313" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9277,10 +9295,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="12" t="s">
+      <c r="J315" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9324,28 +9342,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="12">
+      <c r="A317" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="12">
+      <c r="B317" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="12">
+      <c r="C317" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="12">
+      <c r="E317" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="12">
+      <c r="F317" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="12">
+      <c r="G317" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="12">
+      <c r="H317" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9370,28 +9388,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="12">
+      <c r="B319" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="12">
+      <c r="C319" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="12">
+      <c r="D319" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="12">
+      <c r="E319" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="12">
+      <c r="F319" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="12">
+      <c r="G319" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="12">
+      <c r="H319" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="12">
+      <c r="I319" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9450,10 +9468,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="12" t="s">
+      <c r="J321" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9497,28 +9515,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="12">
+      <c r="A323" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="12">
+      <c r="B323" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="12">
+      <c r="C323" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="12">
+      <c r="E323" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="12">
+      <c r="F323" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="12">
+      <c r="G323" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="12">
+      <c r="H323" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9543,28 +9561,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="12">
+      <c r="B325" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="12">
+      <c r="C325" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="12">
+      <c r="D325" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="12">
+      <c r="E325" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="12">
+      <c r="F325" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="12">
+      <c r="G325" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="12">
+      <c r="H325" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="12">
+      <c r="I325" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9623,10 +9641,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="12" t="s">
+      <c r="J327" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9670,28 +9688,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="12">
+      <c r="A329" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="12">
+      <c r="B329" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="12">
+      <c r="C329" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="12">
+      <c r="E329" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="12">
+      <c r="F329" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="12">
+      <c r="G329" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="12">
+      <c r="H329" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9716,28 +9734,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="12">
+      <c r="B331" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="12">
+      <c r="C331" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="12">
+      <c r="D331" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="12">
+      <c r="E331" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="12">
+      <c r="F331" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="12">
+      <c r="G331" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="12">
+      <c r="H331" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="12">
+      <c r="I331" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9796,10 +9814,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="12" t="s">
+      <c r="J333" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9843,28 +9861,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="12">
+      <c r="A335" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="12">
+      <c r="B335" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="12">
+      <c r="C335" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="12">
+      <c r="E335" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="12">
+      <c r="F335" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="12">
+      <c r="G335" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="12">
+      <c r="H335" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9889,28 +9907,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="12">
+      <c r="B337" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="12">
+      <c r="C337" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="12">
+      <c r="D337" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="12">
+      <c r="E337" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="12">
+      <c r="F337" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="12">
+      <c r="G337" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="12">
+      <c r="H337" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="12">
+      <c r="I337" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9969,10 +9987,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="12" t="s">
+      <c r="J339" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -10016,28 +10034,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="12">
+      <c r="A341" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="12">
+      <c r="B341" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="12">
+      <c r="C341" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="12">
+      <c r="E341" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="12">
+      <c r="F341" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="12">
+      <c r="G341" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="12">
+      <c r="H341" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10062,28 +10080,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="12">
+      <c r="B343" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="12">
+      <c r="C343" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="12">
+      <c r="D343" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="12">
+      <c r="E343" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="12">
+      <c r="F343" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="12">
+      <c r="G343" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="12">
+      <c r="H343" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="12">
+      <c r="I343" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10142,10 +10160,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="12" t="s">
+      <c r="J345" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10189,28 +10207,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="12">
+      <c r="A347" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="12">
+      <c r="B347" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="12">
+      <c r="C347" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="12">
+      <c r="E347" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="12">
+      <c r="F347" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="12">
+      <c r="G347" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="12">
+      <c r="H347" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10235,28 +10253,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="12">
+      <c r="B349" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="12">
+      <c r="C349" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="12">
+      <c r="D349" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="12">
+      <c r="E349" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="12">
+      <c r="F349" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="12">
+      <c r="G349" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="12">
+      <c r="H349" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="12">
+      <c r="I349" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10315,10 +10333,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="12" t="s">
+      <c r="J351" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10362,28 +10380,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="12">
+      <c r="A353" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="12">
+      <c r="B353" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="12">
+      <c r="C353" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="12">
+      <c r="E353" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="12">
+      <c r="F353" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="12">
+      <c r="G353" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="12">
+      <c r="H353" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10408,28 +10426,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="12">
+      <c r="B355" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="12">
+      <c r="C355" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="12">
+      <c r="D355" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="12">
+      <c r="E355" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="12">
+      <c r="F355" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="12">
+      <c r="G355" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="12">
+      <c r="H355" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="12">
+      <c r="I355" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10488,10 +10506,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="12" t="s">
+      <c r="J357" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10535,28 +10553,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="12">
+      <c r="A359" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="12">
+      <c r="B359" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="12">
+      <c r="C359" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="12">
+      <c r="E359" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="12">
+      <c r="F359" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="12">
+      <c r="G359" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="12">
+      <c r="H359" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10581,28 +10599,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="12">
+      <c r="B361" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="12">
+      <c r="C361" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="12">
+      <c r="D361" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="12">
+      <c r="E361" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="12">
+      <c r="F361" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="12">
+      <c r="G361" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="12">
+      <c r="H361" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="12">
+      <c r="I361" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10661,10 +10679,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="12" t="s">
+      <c r="J363" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10708,28 +10726,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="12">
+      <c r="A365" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="12">
+      <c r="B365" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="12">
+      <c r="C365" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="12">
+      <c r="E365" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="12">
+      <c r="F365" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="12">
+      <c r="G365" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="12">
+      <c r="H365" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10754,28 +10772,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="12">
+      <c r="B367" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="12">
+      <c r="C367" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="12">
+      <c r="D367" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="12">
+      <c r="E367" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="12">
+      <c r="F367" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="12">
+      <c r="G367" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="12">
+      <c r="H367" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="12">
+      <c r="I367" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10834,10 +10852,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="12" t="s">
+      <c r="J369" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10881,28 +10899,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="12">
+      <c r="A371" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="12">
+      <c r="B371" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="12">
+      <c r="C371" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="12">
+      <c r="E371" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="12">
+      <c r="F371" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="12">
+      <c r="G371" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="12">
+      <c r="H371" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10927,28 +10945,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="12">
+      <c r="B373" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="12">
+      <c r="C373" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="12">
+      <c r="D373" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="12">
+      <c r="E373" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="12">
+      <c r="F373" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="12">
+      <c r="G373" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="12">
+      <c r="H373" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="12">
+      <c r="I373" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11036,10 +11054,10 @@
       <c r="I376">
         <f>((C376-C375)^2+(D376- D375)^2)^.5</f>
       </c>
-      <c r="J376" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K376" s="12" t="s">
+      <c r="J376" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K376" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L376" t="n">
@@ -11083,28 +11101,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="s" s="12">
+      <c r="A378" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B378" t="s" s="12">
+      <c r="B378" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C378" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D378" t="s" s="12">
+      <c r="C378" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D378" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E378" t="s" s="12">
+      <c r="E378" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F378" t="s" s="12">
+      <c r="F378" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G378" t="s" s="12">
+      <c r="G378" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H378" t="s" s="12">
+      <c r="H378" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11129,28 +11147,28 @@
       </c>
     </row>
     <row r="380">
-      <c r="B380" t="s" s="12">
+      <c r="B380" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C380" t="s" s="12">
+      <c r="C380" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D380" t="s" s="12">
+      <c r="D380" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E380" t="s" s="12">
+      <c r="E380" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F380" t="s" s="12">
+      <c r="F380" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G380" t="s" s="12">
+      <c r="G380" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H380" t="s" s="12">
+      <c r="H380" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I380" t="s" s="12">
+      <c r="I380" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11209,10 +11227,10 @@
       <c r="I382">
         <f>((C382-C381)^2+(D382- D381)^2)^.5</f>
       </c>
-      <c r="J382" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K382" s="12" t="s">
+      <c r="J382" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K382" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L382" t="n">
@@ -11256,28 +11274,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="s" s="12">
+      <c r="A384" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B384" t="s" s="12">
+      <c r="B384" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C384" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D384" t="s" s="12">
+      <c r="C384" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E384" t="s" s="12">
+      <c r="E384" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F384" t="s" s="12">
+      <c r="F384" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G384" t="s" s="12">
+      <c r="G384" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H384" t="s" s="12">
+      <c r="H384" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11302,28 +11320,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="B386" t="s" s="12">
+      <c r="B386" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C386" t="s" s="12">
+      <c r="C386" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D386" t="s" s="12">
+      <c r="D386" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E386" t="s" s="12">
+      <c r="E386" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F386" t="s" s="12">
+      <c r="F386" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G386" t="s" s="12">
+      <c r="G386" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H386" t="s" s="12">
+      <c r="H386" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I386" t="s" s="12">
+      <c r="I386" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11382,10 +11400,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="12" t="s">
+      <c r="J388" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11429,28 +11447,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="12">
+      <c r="A390" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="12">
+      <c r="B390" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="12">
+      <c r="C390" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="12">
+      <c r="E390" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="12">
+      <c r="F390" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="12">
+      <c r="G390" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="12">
+      <c r="H390" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11475,28 +11493,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="12">
+      <c r="B392" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="12">
+      <c r="C392" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="12">
+      <c r="D392" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="12">
+      <c r="E392" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="12">
+      <c r="F392" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="12">
+      <c r="G392" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="12">
+      <c r="H392" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="12">
+      <c r="I392" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11555,10 +11573,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="12" t="s">
+      <c r="J394" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11602,28 +11620,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="12">
+      <c r="A396" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="12">
+      <c r="B396" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="12">
+      <c r="C396" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="12">
+      <c r="E396" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="12">
+      <c r="F396" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="12">
+      <c r="G396" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="12">
+      <c r="H396" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11648,28 +11666,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="12">
+      <c r="B398" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="12">
+      <c r="C398" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="12">
+      <c r="D398" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="12">
+      <c r="E398" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="12">
+      <c r="F398" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="12">
+      <c r="G398" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="12">
+      <c r="H398" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="12">
+      <c r="I398" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11728,10 +11746,10 @@
       <c r="I400">
         <f>((C400-C399)^2+(D400- D399)^2)^.5</f>
       </c>
-      <c r="J400" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K400" s="12" t="s">
+      <c r="J400" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K400" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L400" t="n">
@@ -11775,28 +11793,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="s" s="12">
+      <c r="A402" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B402" t="s" s="12">
+      <c r="B402" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C402" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D402" t="s" s="12">
+      <c r="C402" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E402" t="s" s="12">
+      <c r="E402" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F402" t="s" s="12">
+      <c r="F402" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G402" t="s" s="12">
+      <c r="G402" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H402" t="s" s="12">
+      <c r="H402" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11821,28 +11839,28 @@
       </c>
     </row>
     <row r="404">
-      <c r="B404" t="s" s="12">
+      <c r="B404" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C404" t="s" s="12">
+      <c r="C404" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D404" t="s" s="12">
+      <c r="D404" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E404" t="s" s="12">
+      <c r="E404" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F404" t="s" s="12">
+      <c r="F404" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G404" t="s" s="12">
+      <c r="G404" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H404" t="s" s="12">
+      <c r="H404" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I404" t="s" s="12">
+      <c r="I404" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -11901,10 +11919,10 @@
       <c r="I406">
         <f>((C406-C405)^2+(D406- D405)^2)^.5</f>
       </c>
-      <c r="J406" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K406" s="12" t="s">
+      <c r="J406" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K406" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L406" t="n">
@@ -11948,28 +11966,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="s" s="12">
+      <c r="A408" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B408" t="s" s="12">
+      <c r="B408" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C408" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D408" t="s" s="12">
+      <c r="C408" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D408" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E408" t="s" s="12">
+      <c r="E408" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F408" t="s" s="12">
+      <c r="F408" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G408" t="s" s="12">
+      <c r="G408" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H408" t="s" s="12">
+      <c r="H408" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -11994,28 +12012,28 @@
       </c>
     </row>
     <row r="410">
-      <c r="B410" t="s" s="12">
+      <c r="B410" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C410" t="s" s="12">
+      <c r="C410" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D410" t="s" s="12">
+      <c r="D410" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E410" t="s" s="12">
+      <c r="E410" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F410" t="s" s="12">
+      <c r="F410" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G410" t="s" s="12">
+      <c r="G410" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H410" t="s" s="12">
+      <c r="H410" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I410" t="s" s="12">
+      <c r="I410" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12132,10 +12150,10 @@
       <c r="I414">
         <f>((C414-C413)^2+(D414- D413)^2)^.5</f>
       </c>
-      <c r="J414" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K414" s="12" t="s">
+      <c r="J414" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K414" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L414" t="n">
@@ -12179,28 +12197,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="s" s="12">
+      <c r="A416" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B416" t="s" s="12">
+      <c r="B416" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C416" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D416" t="s" s="12">
+      <c r="C416" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D416" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E416" t="s" s="12">
+      <c r="E416" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F416" t="s" s="12">
+      <c r="F416" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G416" t="s" s="12">
+      <c r="G416" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H416" t="s" s="12">
+      <c r="H416" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12225,28 +12243,28 @@
       </c>
     </row>
     <row r="418">
-      <c r="B418" t="s" s="12">
+      <c r="B418" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C418" t="s" s="12">
+      <c r="C418" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D418" t="s" s="12">
+      <c r="D418" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E418" t="s" s="12">
+      <c r="E418" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F418" t="s" s="12">
+      <c r="F418" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G418" t="s" s="12">
+      <c r="G418" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H418" t="s" s="12">
+      <c r="H418" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I418" t="s" s="12">
+      <c r="I418" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12334,10 +12352,10 @@
       <c r="I421">
         <f>((C421-C420)^2+(D421- D420)^2)^.5</f>
       </c>
-      <c r="J421" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K421" s="12" t="s">
+      <c r="J421" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K421" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L421" t="n">
@@ -12381,28 +12399,28 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="s" s="12">
+      <c r="A423" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B423" t="s" s="12">
+      <c r="B423" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C423" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D423" t="s" s="12">
+      <c r="C423" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D423" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E423" t="s" s="12">
+      <c r="E423" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F423" t="s" s="12">
+      <c r="F423" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G423" t="s" s="12">
+      <c r="G423" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H423" t="s" s="12">
+      <c r="H423" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12427,28 +12445,28 @@
       </c>
     </row>
     <row r="425">
-      <c r="B425" t="s" s="12">
+      <c r="B425" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C425" t="s" s="12">
+      <c r="C425" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D425" t="s" s="12">
+      <c r="D425" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E425" t="s" s="12">
+      <c r="E425" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F425" t="s" s="12">
+      <c r="F425" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G425" t="s" s="12">
+      <c r="G425" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H425" t="s" s="12">
+      <c r="H425" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I425" t="s" s="12">
+      <c r="I425" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12536,10 +12554,10 @@
       <c r="I428">
         <f>((C428-C427)^2+(D428- D427)^2)^.5</f>
       </c>
-      <c r="J428" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K428" s="12" t="s">
+      <c r="J428" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K428" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L428" t="n">
@@ -12583,28 +12601,28 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="s" s="12">
+      <c r="A430" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B430" t="s" s="12">
+      <c r="B430" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C430" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D430" t="s" s="12">
+      <c r="C430" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D430" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E430" t="s" s="12">
+      <c r="E430" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F430" t="s" s="12">
+      <c r="F430" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G430" t="s" s="12">
+      <c r="G430" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H430" t="s" s="12">
+      <c r="H430" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -12629,28 +12647,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="B432" t="s" s="12">
+      <c r="B432" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C432" t="s" s="12">
+      <c r="C432" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D432" t="s" s="12">
+      <c r="D432" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E432" t="s" s="12">
+      <c r="E432" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F432" t="s" s="12">
+      <c r="F432" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G432" t="s" s="12">
+      <c r="G432" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H432" t="s" s="12">
+      <c r="H432" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I432" t="s" s="12">
+      <c r="I432" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -12767,10 +12785,10 @@
       <c r="I436">
         <f>((C436-C435)^2+(D436- D435)^2)^.5</f>
       </c>
-      <c r="J436" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K436" s="12" t="s">
+      <c r="J436" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K436" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L436" t="n">
